--- a/wwwroot/excel/_master/Template_MstProd.xlsx
+++ b/wwwroot/excel/_master/Template_MstProd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Category</t>
   </si>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t>Master product ICD inventory stock</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Computer PC</t>
+  </si>
+  <si>
+    <t>CPT-2019-P01493</t>
+  </si>
+  <si>
+    <t>Old PC Spare</t>
+  </si>
+  <si>
+    <t>Dell Optiplex 3060</t>
+  </si>
+  <si>
+    <t>CPT-2020-D00617</t>
+  </si>
+  <si>
+    <t>BFM00013737</t>
+  </si>
+  <si>
+    <t>6LJFNX2</t>
   </si>
 </sst>
 </file>
@@ -148,12 +175,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H3" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:H3"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:I3"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Seq"/>
     <tableColumn id="2" name="Category"/>
     <tableColumn id="3" name="Product Code"/>
+    <tableColumn id="9" name="Product Name"/>
     <tableColumn id="4" name="Product Type"/>
     <tableColumn id="5" name="Model Name"/>
     <tableColumn id="6" name="CPT Name"/>
@@ -430,30 +458,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -464,19 +494,54 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/excel/_master/Template_MstProd.xlsx
+++ b/wwwroot/excel/_master/Template_MstProd.xlsx
@@ -23,8 +23,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Kanchana Saipanus</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kanchana Saipanus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ใส่ y ในกรณีเป็น product ที่มีจำนวนเพียง 1 เท่านั้น ระบบจะนำจำนวนเข้าให้อัตโนมัติ
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Category</t>
   </si>
@@ -56,9 +91,6 @@
     <t>Product Name</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>Computer PC</t>
   </si>
   <si>
@@ -78,22 +110,20 @@
   </si>
   <si>
     <t>6LJFNX2</t>
+  </si>
+  <si>
+    <t>One by one</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,16 +138,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -125,37 +188,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -172,24 +290,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:I3"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Seq"/>
-    <tableColumn id="2" name="Category"/>
-    <tableColumn id="3" name="Product Code"/>
-    <tableColumn id="9" name="Product Name"/>
-    <tableColumn id="4" name="Product Type"/>
-    <tableColumn id="5" name="Model Name"/>
-    <tableColumn id="6" name="CPT Name"/>
-    <tableColumn id="7" name="Fixed Asset No."/>
-    <tableColumn id="8" name="Serial Number"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -462,7 +562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,79 +576,81 @@
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/wwwroot/excel/_master/Template_MstProd.xlsx
+++ b/wwwroot/excel/_master/Template_MstProd.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Category</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,11 +562,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,12 +583,12 @@
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -616,7 +620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -646,6 +650,9 @@
       </c>
       <c r="J3" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/excel/_master/Template_MstProd.xlsx
+++ b/wwwroot/excel/_master/Template_MstProd.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>Category</t>
   </si>
@@ -94,24 +94,9 @@
     <t>Computer PC</t>
   </si>
   <si>
-    <t>CPT-2019-P01493</t>
-  </si>
-  <si>
     <t>Old PC Spare</t>
   </si>
   <si>
-    <t>Dell Optiplex 3060</t>
-  </si>
-  <si>
-    <t>CPT-2020-D00617</t>
-  </si>
-  <si>
-    <t>BFM00013737</t>
-  </si>
-  <si>
-    <t>6LJFNX2</t>
-  </si>
-  <si>
     <t>One by one</t>
   </si>
   <si>
@@ -119,6 +104,123 @@
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>New PC Spare</t>
+  </si>
+  <si>
+    <t>MO-01</t>
+  </si>
+  <si>
+    <t>MO-02</t>
+  </si>
+  <si>
+    <t>Mouse Acer</t>
+  </si>
+  <si>
+    <t>Mouse Dell</t>
+  </si>
+  <si>
+    <t>Mouse Pad</t>
+  </si>
+  <si>
+    <t>MO-PAD</t>
+  </si>
+  <si>
+    <t>Keybord Acer</t>
+  </si>
+  <si>
+    <t>Keybord Dell</t>
+  </si>
+  <si>
+    <t>Power Cable</t>
+  </si>
+  <si>
+    <t>VGA Cable</t>
+  </si>
+  <si>
+    <t>Display Port Cable</t>
+  </si>
+  <si>
+    <t>DVI Cable</t>
+  </si>
+  <si>
+    <t>Power Plug</t>
+  </si>
+  <si>
+    <t>KB-01</t>
+  </si>
+  <si>
+    <t>KB-02</t>
+  </si>
+  <si>
+    <t>CAB-01</t>
+  </si>
+  <si>
+    <t>CAB-02</t>
+  </si>
+  <si>
+    <t>CAB-03</t>
+  </si>
+  <si>
+    <t>CAB-04</t>
+  </si>
+  <si>
+    <t>PL-01</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Keybord</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Plug</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>CPT-2020-P02119</t>
+  </si>
+  <si>
+    <t>Acer Veriton X2665G</t>
+  </si>
+  <si>
+    <t>For change EOL PC</t>
+  </si>
+  <si>
+    <t>CPT-2021-P02394</t>
+  </si>
+  <si>
+    <t>CPT-2021-P02413</t>
+  </si>
+  <si>
+    <t>UDVSEST13V110004060501</t>
+  </si>
+  <si>
+    <t>UDVSEST13V1080039C0501</t>
+  </si>
+  <si>
+    <t>UDVQWST030151004DE0401</t>
+  </si>
+  <si>
+    <t>Display Screen</t>
+  </si>
+  <si>
+    <t>Monitor Acer</t>
+  </si>
+  <si>
+    <t>CPT-2020-D00147</t>
+  </si>
+  <si>
+    <t>ACER V176L</t>
+  </si>
+  <si>
+    <t>CPT-2020-D00516</t>
   </si>
 </sst>
 </file>
@@ -183,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,30 +298,6 @@
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
@@ -263,15 +341,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -562,24 +638,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,73 +664,439 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>19</v>
+      <c r="K14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="adkmvTWY2GkRMdjcl868w0ISEB5f9EEFa5GuD3U5ptU3VI4DOYhOmuVER/+p0o2PrBxvigyyFRqhrfYmPDaoDg==" saltValue="ryWFteHRGg5duF1SBQX7hA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
